--- a/OnBoard/output/trust/catch/Catch_Trust_1.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_1.xlsx
@@ -1392,7 +1392,7 @@
         <v>0.324</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
         <v>27.02851851851852</v>
@@ -1556,7 +1556,7 @@
         <v>0.038</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29">
         <v>27.02851851851852</v>
@@ -2253,7 +2253,7 @@
         <v>0.257</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>27.02851851851852</v>
@@ -2458,7 +2458,7 @@
         <v>0.218</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I51">
         <v>27.02851851851852</v>
